--- a/www/IndicatorsPerCountry/SouthKorea_CopperProduction_TerritorialRef_1949_2012_CCode_410.xlsx
+++ b/www/IndicatorsPerCountry/SouthKorea_CopperProduction_TerritorialRef_1949_2012_CCode_410.xlsx
@@ -66,13 +66,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SouthKorea_CopperProduction_TerritorialRef_1949_2012_CCode_410.xlsx
+++ b/www/IndicatorsPerCountry/SouthKorea_CopperProduction_TerritorialRef_1949_2012_CCode_410.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="42">
   <si>
     <t>Country Code</t>
   </si>
@@ -37,6 +37,72 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.142</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
   <si>
     <t>Description</t>
@@ -4183,7 +4249,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -4200,7 +4266,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
@@ -4217,7 +4283,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
@@ -4234,7 +4300,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243">
@@ -4251,7 +4317,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
@@ -4268,7 +4334,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -4285,7 +4351,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -4302,7 +4368,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -4319,7 +4385,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
@@ -4336,7 +4402,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
@@ -4353,7 +4419,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -4370,7 +4436,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
@@ -4387,7 +4453,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -4404,7 +4470,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253">
@@ -4421,7 +4487,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254">
@@ -4438,7 +4504,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255">
@@ -4455,7 +4521,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
@@ -4472,7 +4538,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257">
@@ -4489,7 +4555,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258">
@@ -4506,7 +4572,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259">
@@ -4523,7 +4589,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260">
@@ -4540,7 +4606,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
@@ -4557,7 +4623,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262">
@@ -4591,7 +4657,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264">
@@ -4727,7 +4793,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272">
@@ -4880,7 +4946,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281">
@@ -4897,7 +4963,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282">
@@ -4914,7 +4980,7 @@
         <v>2009.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283">
@@ -4931,7 +4997,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
@@ -4948,7 +5014,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285">
@@ -4983,50 +5049,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
